--- a/stare matury rozszerzenie/maj 2008 rozsz/excel/wybory nie dziala czemu .xlsx
+++ b/stare matury rozszerzenie/maj 2008 rozsz/excel/wybory nie dziala czemu .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\matura-inf\stare matury rozszerzenie\maj 2008 rozsz\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4EF139-3A13-4DE8-84A5-FD28D9F991C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31177DE-5EB5-4BDE-BE19-CCA59F5873B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="4080" windowWidth="14355" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK65"/>
+  <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="AD4" workbookViewId="0">
+      <selection activeCell="AK20" sqref="P20:AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,37 +454,37 @@
     <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -512,15 +512,15 @@
         <f>SUM(B2:G2)</f>
         <v>1308</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -548,10 +548,10 @@
         <f t="shared" ref="I3:I21" si="0">SUM(B3:G3)</f>
         <v>1552</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" t="s">
@@ -573,8 +573,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -602,7 +602,7 @@
         <f t="shared" si="0"/>
         <v>1458</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
       <c r="L4">
@@ -630,8 +630,8 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -659,12 +659,12 @@
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -692,16 +692,16 @@
         <f t="shared" si="0"/>
         <v>1209</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="3"/>
       <c r="N6">
         <f>MAX(I2:I21)</f>
         <v>1552</v>
@@ -711,8 +711,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -740,13 +740,13 @@
         <f t="shared" si="0"/>
         <v>1521</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="3"/>
       <c r="N7">
         <f>MIN(I1:I21)</f>
         <v>1017</v>
@@ -756,8 +756,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -785,12 +785,12 @@
         <f t="shared" si="0"/>
         <v>1148</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -818,7 +818,7 @@
         <f t="shared" si="0"/>
         <v>1364</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>8</v>
       </c>
       <c r="K9">
@@ -843,8 +843,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -872,12 +872,12 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -905,12 +905,12 @@
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
@@ -938,7 +938,7 @@
         <f t="shared" si="0"/>
         <v>1226</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>11</v>
       </c>
       <c r="L12" t="s">
@@ -1020,8 +1020,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1049,7 +1049,7 @@
         <f t="shared" si="0"/>
         <v>1123</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>12</v>
       </c>
       <c r="L13">
@@ -1063,9 +1063,12 @@
         <f>$B$7/($M42+1)</f>
         <v>498</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="AL13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1093,7 +1096,7 @@
         <f t="shared" si="0"/>
         <v>1266</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>13</v>
       </c>
       <c r="L14">
@@ -1103,9 +1106,12 @@
         <f>$C$7/($N41+1)</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="AL14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1133,7 +1139,7 @@
         <f t="shared" si="0"/>
         <v>1096</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>14</v>
       </c>
       <c r="L15">
@@ -1143,9 +1149,12 @@
         <f>$B$7/($O41+1)</f>
         <v>498</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="AL15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1173,7 +1182,7 @@
         <f t="shared" si="0"/>
         <v>1480</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>15</v>
       </c>
       <c r="L16">
@@ -1183,9 +1192,12 @@
         <f>$C$7/($P41+1)</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="AL16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1213,7 +1225,7 @@
         <f t="shared" si="0"/>
         <v>1417</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>16</v>
       </c>
       <c r="L17">
@@ -1223,9 +1235,12 @@
         <f>$B$7/($Q41+1)</f>
         <v>498</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="AL17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1253,7 +1268,7 @@
         <f t="shared" si="0"/>
         <v>1468</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>17</v>
       </c>
       <c r="L18">
@@ -1263,9 +1278,12 @@
         <f>$G$7/($R41+1)</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="AL18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1293,7 +1311,7 @@
         <f t="shared" si="0"/>
         <v>1152</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>18</v>
       </c>
       <c r="L19" t="s">
@@ -1396,8 +1414,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1425,19 +1443,23 @@
         <f t="shared" si="0"/>
         <v>1180</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>19</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
       </c>
       <c r="N20">
-        <f>VLOOKUP(N19,L13:N18,1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+        <f>VLOOKUP(N19,N13:$AL$18,25-M12)</f>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f>VLOOKUP(O19,O13:$AL$18,25-N12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1465,24 +1487,24 @@
         <f t="shared" si="0"/>
         <v>1186</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>9</v>
       </c>
